--- a/3des/Resultados.xlsx
+++ b/3des/Resultados.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E50D87-3768-4BE0-B9DF-01E4C3AAA440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAEP" sheetId="2" r:id="rId1"/>
     <sheet name="Projetos" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>Nota</t>
   </si>
@@ -127,22 +128,37 @@
     <t>% Objetiva</t>
   </si>
   <si>
-    <t>Prep-apresentação</t>
-  </si>
-  <si>
-    <t>Prep-Documentação</t>
-  </si>
-  <si>
     <t>Aluno</t>
   </si>
   <si>
     <t>VPS01</t>
+  </si>
+  <si>
+    <t>Apresentação</t>
+  </si>
+  <si>
+    <t>Documentação</t>
+  </si>
+  <si>
+    <t>Atitudes Observação</t>
+  </si>
+  <si>
+    <t>Pre apresentação</t>
+  </si>
+  <si>
+    <t>Pre documentação</t>
+  </si>
+  <si>
+    <t>VPS02</t>
+  </si>
+  <si>
+    <t>RMS TESTES VPS01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -193,7 +209,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -201,6 +217,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +544,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -529,7 +559,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>26</v>
@@ -1032,33 +1062,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1066,14 +1118,30 @@
         <v>50</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D2">
-        <f>AVERAGE(B2:C2)</f>
+        <v>50</v>
+      </c>
+      <c r="E2" s="3">
+        <f>TRUNC(AVERAGE(B2:D2))</f>
+        <v>56</v>
+      </c>
+      <c r="F2">
+        <v>75</v>
+      </c>
+      <c r="G2">
+        <v>75</v>
+      </c>
+      <c r="H2" s="3">
+        <f>TRUNC(AVERAGE(F2:G2))</f>
+        <v>75</v>
+      </c>
+      <c r="I2" s="8">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1081,14 +1149,30 @@
         <v>70</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D26" si="0">AVERAGE(B3:C3)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E26" si="0">TRUNC(AVERAGE(B3:D3))</f>
+        <v>66</v>
+      </c>
+      <c r="F3">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H26" si="1">TRUNC(AVERAGE(F3:G3))</f>
+        <v>67</v>
+      </c>
+      <c r="I3" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1096,14 +1180,30 @@
         <v>90</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+      <c r="G4">
+        <v>75</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="I4" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1111,14 +1211,30 @@
         <v>100</v>
       </c>
       <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
         <v>65</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="F5">
+        <v>75</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="I5" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1126,14 +1242,30 @@
         <v>90</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+      <c r="G6">
+        <v>75</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="I6" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1141,14 +1273,30 @@
         <v>70</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <v>75</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="I7" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1156,14 +1304,30 @@
         <v>70</v>
       </c>
       <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8">
         <v>30</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <v>60</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="I8" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1171,14 +1335,30 @@
         <v>90</v>
       </c>
       <c r="C9">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="F9">
+        <v>75</v>
+      </c>
+      <c r="G9">
+        <v>75</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="I9" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1189,11 +1369,27 @@
         <v>100</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>75</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="I10" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1201,14 +1397,30 @@
         <v>50</v>
       </c>
       <c r="C11">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="F11">
+        <v>60</v>
+      </c>
+      <c r="G11">
+        <v>60</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I11" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1216,14 +1428,30 @@
         <v>60</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F12">
+        <v>60</v>
+      </c>
+      <c r="G12">
+        <v>60</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I12" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1231,14 +1459,30 @@
         <v>100</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>90</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="I13" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1246,14 +1490,30 @@
         <v>70</v>
       </c>
       <c r="C14">
+        <v>70</v>
+      </c>
+      <c r="D14">
         <v>30</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F14">
+        <v>75</v>
+      </c>
+      <c r="G14">
+        <v>60</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="I14" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1261,14 +1521,30 @@
         <v>70</v>
       </c>
       <c r="C15">
+        <v>70</v>
+      </c>
+      <c r="D15">
         <v>30</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F15">
+        <v>75</v>
+      </c>
+      <c r="G15">
+        <v>60</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="I15" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1276,14 +1552,30 @@
         <v>100</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>90</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="I16" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1291,14 +1583,30 @@
         <v>90</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="F17">
+        <v>75</v>
+      </c>
+      <c r="G17">
+        <v>90</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="I17" s="8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1309,11 +1617,27 @@
         <v>90</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>75</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="I18" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1324,11 +1648,27 @@
         <v>90</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="F19">
+        <v>75</v>
+      </c>
+      <c r="G19">
+        <v>90</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="I19" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1336,14 +1676,30 @@
         <v>50</v>
       </c>
       <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="D20">
         <v>65</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>75</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="I20" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1354,11 +1710,27 @@
         <v>80</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="F21">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <v>90</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="I21" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1366,14 +1738,30 @@
         <v>50</v>
       </c>
       <c r="C22">
+        <v>80</v>
+      </c>
+      <c r="D22">
         <v>65</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F22">
+        <v>75</v>
+      </c>
+      <c r="G22">
+        <v>90</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="I22" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1384,11 +1772,27 @@
         <v>100</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>90</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="I23" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1399,11 +1803,27 @@
         <v>60</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F24">
+        <v>75</v>
+      </c>
+      <c r="G24">
+        <v>75</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="I24" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1414,11 +1834,27 @@
         <v>90</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>75</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="I25" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1426,11 +1862,27 @@
         <v>60</v>
       </c>
       <c r="C26">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>60</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F26">
+        <v>60</v>
+      </c>
+      <c r="G26">
+        <v>60</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I26" s="8">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1440,6 +1892,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CACFF25D61573B44BF33C026F42204B2" ma:contentTypeVersion="9" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="88d9f7fccd898c04a565f471baab47e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="17a68905-9562-4fb8-9501-49fe46e69773" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d48945f68c85a10f7959e499592c770e" ns2:_="">
     <xsd:import namespace="17a68905-9562-4fb8-9501-49fe46e69773"/>
@@ -1615,35 +2082,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91B0727A-44B1-4F0E-ADBB-3F21B9B162AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F067D0D1-6AFD-4E18-ADC2-7DC650A8DDBB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="17a68905-9562-4fb8-9501-49fe46e69773"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1665,9 +2107,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F067D0D1-6AFD-4E18-ADC2-7DC650A8DDBB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91B0727A-44B1-4F0E-ADBB-3F21B9B162AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="17a68905-9562-4fb8-9501-49fe46e69773"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>